--- a/Mussel_Cancer/Rcalc_for_cancer/Data/Magadan_data.xlsx
+++ b/Mussel_Cancer/Rcalc_for_cancer/Data/Magadan_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Все данные Магадан" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Site</t>
   </si>
@@ -55,166 +55,34 @@
     <t>mar</t>
   </si>
   <si>
-    <t>59.542834</t>
-  </si>
-  <si>
-    <t>150.7749</t>
-  </si>
-  <si>
-    <t>29.3563236826797</t>
-  </si>
-  <si>
-    <t>5.07000</t>
-  </si>
-  <si>
     <t>Duk</t>
   </si>
   <si>
-    <t>59.5569</t>
-  </si>
-  <si>
-    <t>150.929357</t>
-  </si>
-  <si>
-    <t>2.11578495495479</t>
-  </si>
-  <si>
-    <t>84.1</t>
-  </si>
-  <si>
     <t>Ger</t>
   </si>
   <si>
-    <t>59.560839</t>
-  </si>
-  <si>
-    <t>150.922</t>
-  </si>
-  <si>
-    <t>70.1135882455593</t>
-  </si>
-  <si>
-    <t>80.71</t>
-  </si>
-  <si>
     <t>Mam</t>
   </si>
   <si>
-    <t>59.562167</t>
-  </si>
-  <si>
-    <t>150.768</t>
-  </si>
-  <si>
-    <t>20.2756218852069</t>
-  </si>
-  <si>
-    <t>2.300000</t>
-  </si>
-  <si>
     <t>Khol</t>
   </si>
   <si>
-    <t>59.530758</t>
-  </si>
-  <si>
-    <t>150.751410</t>
-  </si>
-  <si>
-    <t>29.6169796027399</t>
-  </si>
-  <si>
-    <t>7.2200000</t>
-  </si>
-  <si>
     <t>Nuk_I</t>
   </si>
   <si>
-    <t>59.578226</t>
-  </si>
-  <si>
-    <t>151.129563</t>
-  </si>
-  <si>
-    <t>59.3371654113281</t>
-  </si>
-  <si>
-    <t>92.36</t>
-  </si>
-  <si>
     <t>Nuk_II</t>
   </si>
   <si>
-    <t>59.577628</t>
-  </si>
-  <si>
-    <t>151.13</t>
-  </si>
-  <si>
-    <t>77.4183935568798</t>
-  </si>
-  <si>
-    <t>92.8</t>
-  </si>
-  <si>
     <t>UM</t>
   </si>
   <si>
-    <t>59.53851</t>
-  </si>
-  <si>
-    <t>150.898869</t>
-  </si>
-  <si>
-    <t>56.4850704471812</t>
-  </si>
-  <si>
-    <t>76.01</t>
-  </si>
-  <si>
     <t>Mar_II</t>
   </si>
   <si>
-    <t>59.543752</t>
-  </si>
-  <si>
-    <t>150.775</t>
-  </si>
-  <si>
-    <t>29.3085628593173</t>
-  </si>
-  <si>
-    <t>5.56000</t>
-  </si>
-  <si>
     <t>Ves</t>
   </si>
   <si>
-    <t>59.497289</t>
-  </si>
-  <si>
-    <t>150.923172</t>
-  </si>
-  <si>
-    <t>88.8624992025979</t>
-  </si>
-  <si>
-    <t>68.03</t>
-  </si>
-  <si>
     <t>XP</t>
-  </si>
-  <si>
-    <t>59.527766</t>
-  </si>
-  <si>
-    <t>150.734569</t>
-  </si>
-  <si>
-    <t>21.4046384558849</t>
-  </si>
-  <si>
-    <t>8.07000</t>
   </si>
 </sst>
 </file>
@@ -223,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -239,89 +107,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,9 +118,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +171,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -357,30 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,61 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,121 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,47 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -656,6 +483,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -677,165 +554,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,11 +1043,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="10.6666666666667"/>
+    <col min="3" max="3" width="11.7777777777778"/>
     <col min="5" max="5" width="12.8888888888889"/>
     <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
     <col min="11" max="11" width="11.7777777777778" customWidth="1"/>
@@ -1227,11 +1097,11 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="1">
+        <v>59.542834</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150.7749</v>
       </c>
       <c r="D2" s="1">
         <v>2927.75</v>
@@ -1245,14 +1115,14 @@
       <c r="G2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
+      <c r="H2" s="2">
+        <v>29.3563236826797</v>
       </c>
       <c r="I2">
         <v>2.78</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="J2">
+        <v>5.07</v>
       </c>
       <c r="K2">
         <v>64</v>
@@ -1263,13 +1133,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59.5569</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150.929357</v>
       </c>
       <c r="D3" s="1">
         <v>1640.253</v>
@@ -1283,14 +1153,14 @@
       <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+      <c r="H3" s="2">
+        <v>2.11578495495479</v>
       </c>
       <c r="I3">
         <v>7.1</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
+      <c r="J3">
+        <v>84.1</v>
       </c>
       <c r="K3">
         <v>64</v>
@@ -1301,13 +1171,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>59.560839</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150.922</v>
       </c>
       <c r="D4" s="1">
         <v>12304.624</v>
@@ -1321,14 +1191,14 @@
       <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
+      <c r="H4" s="3">
+        <v>70.1135882455593</v>
       </c>
       <c r="I4">
         <v>8.03</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
+      <c r="J4">
+        <v>80.71</v>
       </c>
       <c r="K4">
         <v>64</v>
@@ -1339,13 +1209,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>59.562167</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150.768</v>
       </c>
       <c r="D5" s="1">
         <v>3525.682</v>
@@ -1359,14 +1229,14 @@
       <c r="G5">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
+      <c r="H5" s="2">
+        <v>20.2756218852069</v>
       </c>
       <c r="I5">
         <v>1.75</v>
       </c>
-      <c r="J5" t="s">
-        <v>31</v>
+      <c r="J5">
+        <v>2.3</v>
       </c>
       <c r="K5">
         <v>64</v>
@@ -1377,13 +1247,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>59.530758</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150.75141</v>
       </c>
       <c r="D6" s="1">
         <v>8681.126</v>
@@ -1397,14 +1267,14 @@
       <c r="G6">
         <v>14</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
+      <c r="H6" s="2">
+        <v>29.6169796027399</v>
       </c>
       <c r="I6">
         <v>4.28</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
+      <c r="J6">
+        <v>7.22</v>
       </c>
       <c r="K6">
         <v>163</v>
@@ -1415,13 +1285,13 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>59.578226</v>
+      </c>
+      <c r="C7" s="1">
+        <v>151.129563</v>
       </c>
       <c r="D7" s="1">
         <v>11893.178</v>
@@ -1435,14 +1305,14 @@
       <c r="G7">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
+      <c r="H7" s="2">
+        <v>59.3371654113281</v>
       </c>
       <c r="I7">
         <v>18.8</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
+      <c r="J7">
+        <v>92.36</v>
       </c>
       <c r="K7">
         <v>64</v>
@@ -1453,13 +1323,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59.577628</v>
+      </c>
+      <c r="C8" s="1">
+        <v>151.13</v>
       </c>
       <c r="D8" s="1">
         <v>14835.26</v>
@@ -1473,14 +1343,14 @@
       <c r="G8">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
+      <c r="H8" s="2">
+        <v>77.4183935568798</v>
       </c>
       <c r="I8">
         <v>19.04</v>
       </c>
-      <c r="J8" t="s">
-        <v>46</v>
+      <c r="J8">
+        <v>92.8</v>
       </c>
       <c r="K8">
         <v>32</v>
@@ -1491,13 +1361,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>59.53851</v>
+      </c>
+      <c r="C9" s="1">
+        <v>150.898869</v>
       </c>
       <c r="D9" s="1">
         <v>22011.564</v>
@@ -1511,14 +1381,14 @@
       <c r="G9">
         <v>13.5</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>50</v>
+      <c r="H9" s="2">
+        <v>56.4850704471812</v>
       </c>
       <c r="I9">
         <v>19.26</v>
       </c>
-      <c r="J9" t="s">
-        <v>51</v>
+      <c r="J9">
+        <v>76.01</v>
       </c>
       <c r="K9">
         <v>64</v>
@@ -1529,13 +1399,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>59.543752</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150.775</v>
       </c>
       <c r="D10" s="1">
         <v>22897.794</v>
@@ -1549,14 +1419,14 @@
       <c r="G10">
         <v>12</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
+      <c r="H10" s="2">
+        <v>29.3085628593173</v>
       </c>
       <c r="I10">
         <v>2.37</v>
       </c>
-      <c r="J10" t="s">
-        <v>56</v>
+      <c r="J10">
+        <v>5.56</v>
       </c>
       <c r="K10">
         <v>230</v>
@@ -1567,13 +1437,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>59.497289</v>
+      </c>
+      <c r="C11" s="1">
+        <v>150.923172</v>
       </c>
       <c r="D11" s="1">
         <v>17989.278</v>
@@ -1587,14 +1457,14 @@
       <c r="G11">
         <v>10.2</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>60</v>
+      <c r="H11" s="2">
+        <v>88.8624992025979</v>
       </c>
       <c r="I11">
         <v>9.48</v>
       </c>
-      <c r="J11" t="s">
-        <v>61</v>
+      <c r="J11">
+        <v>68.03</v>
       </c>
       <c r="K11">
         <v>194</v>
@@ -1605,13 +1475,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>59.527766</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150.734569</v>
       </c>
       <c r="D12" s="1">
         <v>11546.22</v>
@@ -1625,14 +1495,14 @@
       <c r="G12">
         <v>13.3</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>65</v>
+      <c r="H12" s="2">
+        <v>21.4046384558849</v>
       </c>
       <c r="I12">
         <v>4.89</v>
       </c>
-      <c r="J12" t="s">
-        <v>66</v>
+      <c r="J12">
+        <v>8.07</v>
       </c>
       <c r="K12">
         <v>164</v>
